--- a/Team-Data/2012-13/1-31-2012-13.xlsx
+++ b/Team-Data/2012-13/1-31-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.413</v>
+        <v>0.422</v>
       </c>
       <c r="H8" t="n">
         <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
@@ -1785,28 +1852,28 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
@@ -1827,25 +1894,25 @@
         <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC8" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2127,7 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.63</v>
+        <v>0.622</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2325,7 +2392,7 @@
         <v>83</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,31 +2401,31 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
         <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -2382,10 +2449,10 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2961,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3198,7 @@
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.644</v>
+        <v>0.659</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
         <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q16" t="n">
         <v>0.79</v>
       </c>
       <c r="R16" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
         <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3334,19 +3401,19 @@
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3364,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3956,7 @@
         <v>6</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
@@ -3901,7 +3968,7 @@
         <v>14</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
@@ -4083,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -4205,13 +4272,13 @@
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -4220,7 +4287,7 @@
         <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
         <v>0.385</v>
@@ -4342,16 +4409,16 @@
         <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.836</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
         <v>43</v>
@@ -4366,10 +4433,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
         <v>20.8</v>
@@ -4381,10 +4448,10 @@
         <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
         <v>3</v>
@@ -4429,19 +4496,19 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4593,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="AM23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5758,7 @@
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
@@ -5903,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6052,7 +6119,7 @@
         <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-31-2012-13</t>
+          <t>2013-01-31</t>
         </is>
       </c>
     </row>
